--- a/src/main/resources/project/Suite 2.xlsx
+++ b/src/main/resources/project/Suite 2.xlsx
@@ -12,9 +12,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Sub-Suite: Sub-Suite 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>Sub-Suite: Sub-Suite 1</t>
+  </si>
+  <si>
+    <t>Scenario: Test Suite</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Extra1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FileSystem</t>
+  </si>
+  <si>
+    <t>checkFileContainsKeyword</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private void loadTestScenario(TreeItem&lt;TestNode&gt; scenario) {
+    // Reset to default columns
+    tableView.getColumns().setAll(itemColumn, objectColumn, actionColumn, descriptionColumn, inputColumn);
+    String key = makeKey(scenario);
+    List&lt;TestStep&gt; steps = scenarioSteps.getOrDefault(key, new ArrayList&lt;&gt;());
+    // Clone steps so edits don’t mutate the original list directly
+    ObservableList&lt;TestStep&gt; clonedSteps = FXCollections.observableArrayList();
+    for (TestStep step : steps) {
+        TestStep clone = new TestStep(step.getItem(), step.getAction(), step.getObject(), step.getInput());
+        clone.setDescription(step.getDescription());
+        for (Map.Entry&lt;String, SimpleStringProperty&gt; entry : step.getExtras().entrySet()) {
+            clone.setExtra(entry.getKey(), entry.getValue().get());
+        }
+        clonedSteps.add(clone);
+    }
+    tableView.setItems(clonedSteps);
+    // ✅ Re‑apply auto‑commit factories for description
+    descriptionColumn.setCellValueFactory(new PropertyValueFactory&lt;&gt;("description"));
+    descriptionColumn.setCellFactory(col -&gt; new AutoCommitTextFieldTableCell&lt;&gt;());
+    descriptionColumn.setOnEditCommit(event -&gt; event.getRowValue().setDescription(event.getNewValue()));
+    // ✅ Keep your custom dialog editor for inputColumn
+    inputColumn.setCellValueFactory(new PropertyValueFactory&lt;&gt;("input"));
+    // Do NOT overwrite inputColumn’s cellFactory here — it was already set up in initialize()
+    // ✅ Re‑apply auto‑commit factories for extras
+    List&lt;String&gt; extras = scenarioColumns.getOrDefault(key, List.of());
+    for (String colName : extras) {
+        TableColumn&lt;TestStep, String&gt; extraColumn = new TableColumn&lt;&gt;(colName);
+        extraColumn.setCellValueFactory(cellData -&gt; cellData.getValue().getExtraProperty(colName));
+        extraColumn.setCellFactory(col -&gt; new AutoCommitTextFieldTableCell&lt;&gt;());
+        extraColumn.setOnEditCommit(evt -&gt; evt.getRowValue().setExtra(colName, evt.getNewValue()));
+        tableView.getColumns().add(extraColumn);
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>executeQuery</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -59,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -70,6 +148,71 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
